--- a/data/extracted_data/raw_round2/Lin_2024_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Lin_2024_Fig_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BDCA14-C9C0-0D41-A864-79DAB69301FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{95BDCA14-C9C0-0D41-A864-79DAB69301FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E16EF59C-C192-B342-9987-9D8FE2491F6F}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="9260" windowWidth="27640" windowHeight="16940" xr2:uid="{5671DF37-5E44-3C43-86DF-0A3CD080526D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{5671DF37-5E44-3C43-86DF-0A3CD080526D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
-  </si>
-  <si>
     <t>whole tissue</t>
   </si>
   <si>
@@ -60,6 +51,15 @@
   </si>
   <si>
     <t>mantle</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -116,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,18 +426,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>1.0217983651226099</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>2.04359673024523</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>3.0653950953678399</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>4.0871934604904601</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>6.2670299727520398</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>8.2425068119890899</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>12.397820163487699</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>24</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>0.83120158529995003</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>1.88236353810123</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>2.88218339038011</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>3.8782201405152099</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>5.8632678796613202</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>7.9039812646370002</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>11.921635741307799</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>23.949198342640901</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>0.932993479178719</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>1.9965910334798</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>2.9873805688908299</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>3.9762936089696401</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>6.0025332686984898</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>7.9555896104708399</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>11.935636210104899</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>23.931695569907198</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
         <v>0.92503113325030695</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
         <v>1.9270236612702401</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
         <v>2.9084682440846801</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1">
         <v>3.9519302615192999</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
         <v>5.9099626400996197</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
         <v>7.8993773349937699</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1">
         <v>11.9271481942714</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <v>23.949564134495599</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
         <v>0.92675654653875805</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
         <v>1.9484054964998601</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
         <v>2.8942183043816399</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
         <v>3.9271454498314702</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
         <v>5.9782214156079796</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
         <v>7.9437386569872901</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
         <v>11.957609541094101</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
         <v>23.987555094633102</v>

--- a/data/extracted_data/raw_round2/Lin_2024_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Lin_2024_Fig_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{95BDCA14-C9C0-0D41-A864-79DAB69301FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E16EF59C-C192-B342-9987-9D8FE2491F6F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{95BDCA14-C9C0-0D41-A864-79DAB69301FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC2067A-5FD4-C342-970E-70F6F222FC41}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{5671DF37-5E44-3C43-86DF-0A3CD080526D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{5671DF37-5E44-3C43-86DF-0A3CD080526D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
   <si>
     <t>whole tissue</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -113,6 +122,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,521 +425,659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3819BD29-97DD-0A4F-B905-475583A3FD0C}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.0217983651226099</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>769.379127841132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>2.04359673024523</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>781.55660959172906</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
         <v>3.0653950953678399</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>699.08388558100899</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>4.0871934604904601</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>641.30251959498003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
         <v>6.2670299727520398</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>591.56098272053396</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
         <v>8.2425068119890899</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>624.15761204740897</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
         <v>12.397820163487699</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>672.856325899014</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>444.46687074600999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.83120158529995003</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3483.6065573770402</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
         <v>1.88236353810123</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3627.0491803278601</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
         <v>2.88218339038011</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3217.2131147540899</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
         <v>3.8782201405152099</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2950.8196721311401</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
         <v>5.8632678796613202</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2684.4262295081899</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
         <v>7.9039812646370002</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2807.3770491803198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
         <v>11.921635741307799</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2971.3114754098301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
         <v>23.949198342640901</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1926.22950819672</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
         <v>0.932993479178719</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>72.451484776931693</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
         <v>1.9965910334798</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>41.6523323273233</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
         <v>2.9873805688908299</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>35.509155733475097</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
         <v>3.9762936089696401</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>31.934432125600001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
         <v>6.0025332686984898</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>33.518897871741501</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
         <v>7.9555896104708399</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>60.273030070837699</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
         <v>11.935636210104899</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>87.584246821685994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
         <v>23.931695569907198</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>92.977998092229697</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
         <v>0.92503113325030695</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>46.268991282689903</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
         <v>1.9270236612702401</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>36.484433374844301</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
         <v>2.9084682440846801</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>41.665628891656297</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
         <v>3.9519302615192999</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>41.677459526774598</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
         <v>5.9099626400996197</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>55.5772104607721</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
         <v>7.8993773349937699</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>46.620174346201701</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
         <v>11.9271481942714</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>33.060398505603899</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
         <v>23.949564134495599</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>36.734122042341198</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
         <v>0.92675654653875805</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>39.162561576354697</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
         <v>1.9484054964998601</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>48.029556650246299</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
         <v>2.8942183043816399</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>50.985221674876897</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
         <v>3.9271454498314702</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>38.423645320197103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
         <v>5.9782214156079796</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>41.379310344827601</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
         <v>7.9437386569872901</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>56.896551724138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
         <v>11.957609541094101</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>80.541871921182207</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
         <v>23.987555094633102</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>23.645320197044299</v>
       </c>
     </row>
